--- a/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T06:10:58+00:00</t>
+    <t>2022-09-26T06:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T06:29:32+00:00</t>
+    <t>2022-09-26T07:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
